--- a/files/Stembureaus Open Data Standaard 1.5 - Tweede Kamerverkiezingen 2023 voorbeeld.xlsx
+++ b/files/Stembureaus Open Data Standaard 1.5 - Tweede Kamerverkiezingen 2023 voorbeeld.xlsx
@@ -54,6 +54,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dit tabblad geeft </t>
     </r>
@@ -62,6 +63,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">informatie over het opslaan van data volgens deze standaard in CSV-, spreadsheet- en JSON-bestandsformaten.</t>
     </r>
@@ -127,6 +129,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Versie 1.4:
 – Toevoeging van ‘</t>
@@ -137,6 +140,7 @@
         <color rgb="FF000000"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Toegankelijke ov-halte’-attribuut.
 – Toevoeging van ‘Extra toegankelijkheidsinformatie’-attribuut.
@@ -147,6 +151,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– ‘schrijftolk’ toegevoegd aan de voorbeelden van het ‘Auditieve hulpmiddelen’-attribuut.
 – ‘leesloep’ verwijderd uit de voorbeelden van het ‘Visuele hulpmiddelen’-attribuut.
@@ -163,6 +168,7 @@
         <color rgb="FF000000"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'0000000000000000' (zestien keer het getal '0') invullen bij het ‘BAG Nummeraanduiding ID’-attribuut.
 </t>
@@ -172,6 +178,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– Opmerking toegevoegd dat stembureaus die op meerdere dagen open zijn voor elke dag een ander stembureau nummer moeten hebben en dus apart moeten worden ingevoerd.
 – Toevoeging van ‘Type stembureau’-attribuut.
@@ -184,6 +191,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– URL van CBS-tabel met gemeentenamen en -codes aangepast naar de 2023 versie.</t>
     </r>
@@ -194,6 +202,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Versie 1.5:
 – URL van CBS-tabel met gemeentenamen en -codes aangepast van een statische pagina voor een specifiek jaar naar een pagina die door het CBS bijgehouden wordt, zodat deze URL niet meer elk jaar hoeft te worden aangepast.
@@ -206,6 +215,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Akoestiek geschikt voor slechthorenden’.
 </t>
@@ -215,6 +225,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– ‘Bestandsformaten’-tabblad JSON voorbeeld bijgewerkt.</t>
     </r>
@@ -436,7 +447,7 @@
     <t xml:space="preserve">Openingstijd</t>
   </si>
   <si>
-    <t xml:space="preserve">In sommige gevallen heeft een stembureau meerdere openingstijden, bijvoorbeeld een mobiel stemburea of een stembureau dat ‘s middags even dicht is. In zulke gevallen moeten voor alle openingstijden alle attributen apart ingevuld worden.</t>
+    <t xml:space="preserve">In sommige gevallen heeft een stembureau meerdere openingstijden, bijvoorbeeld een mobiel stembureau of een stembureau dat ‘s middags even dicht is. In zulke gevallen moeten alle openingstijden als aparte stembureaus ingevuld worden.</t>
   </si>
   <si>
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS</t>
@@ -862,6 +873,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -883,6 +895,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -890,12 +903,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -903,6 +918,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -910,12 +926,14 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -924,18 +942,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -943,6 +964,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -950,18 +972,21 @@
       <color rgb="FF0000EE"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -971,34 +996,40 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1006,12 +1037,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1019,18 +1052,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1038,12 +1074,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1684,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1704,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1719,18 +1757,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -3582,7 +3620,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="/CBS/nl/dataset/70739ned/table?dl=5A68C" display="https://opendata.cbs.nl/#/CBS/nl/dataset/70739ned/table?dl=5A68C"/>
+    <hyperlink ref="C3" r:id="rId1" location="/CBS/nl/dataset/70739ned/table?dl=5A68C" display="&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/70739ned/table?dl=5A68C of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.&#10;&#10;&lt;YYYYMMDD&gt;: datum van de verkiezing&#10;&#10;&lt;oplopend getal&gt;: getal tussen 000 en 999"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3605,7 +3643,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="129.34"/>
   </cols>
